--- a/data/trans_dic/P33B_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R2-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2490220985460685</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3506153527997402</v>
+        <v>0.3506153527997403</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3054690752372077</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2108171869926063</v>
+        <v>0.2111817310780446</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3189584070393433</v>
+        <v>0.3175831540569906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2794733973950164</v>
+        <v>0.2785175724114284</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2880154040843084</v>
+        <v>0.2897281578552266</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3865639171121369</v>
+        <v>0.3876588814053548</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3302810433251238</v>
+        <v>0.3323258843283639</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1265117272162385</v>
+        <v>0.1277671787953844</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2339193880280135</v>
+        <v>0.234069412418822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1912796901201953</v>
+        <v>0.1926529409748886</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1708386106587051</v>
+        <v>0.1736889428124603</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2760516605380174</v>
+        <v>0.2776067456933497</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2240511968000249</v>
+        <v>0.2227804021071539</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1001738561079473</v>
+        <v>0.1009551415091406</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1603556787112364</v>
+        <v>0.160831461500002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1365707940946955</v>
+        <v>0.1349908101119293</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1401329308414817</v>
+        <v>0.1429064280137902</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2020173675977092</v>
+        <v>0.2017029372288294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.164956026713983</v>
+        <v>0.1633659690917386</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.1591790949878012</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1275129450835231</v>
+        <v>0.127512945083523</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07811017094322319</v>
+        <v>0.08009167131849887</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1381934079116877</v>
+        <v>0.1398927957491534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1138894786918245</v>
+        <v>0.1143017662006227</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1211604795963173</v>
+        <v>0.1217809609397219</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1778385287983151</v>
+        <v>0.1793518882774797</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1431445954301395</v>
+        <v>0.1420008551993391</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1286471385767574</v>
+        <v>0.1289757415588911</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2148925226713582</v>
+        <v>0.2148433261088436</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1763711070057173</v>
+        <v>0.1757447858456223</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1519966533461792</v>
+        <v>0.1522610289303106</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2383634406217242</v>
+        <v>0.239227676430729</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1933100676652581</v>
+        <v>0.1927003281330148</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105143</v>
+        <v>105325</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>198896</v>
+        <v>198039</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>313659</v>
+        <v>312586</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>143645</v>
+        <v>144499</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>241054</v>
+        <v>241736</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>370681</v>
+        <v>372976</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>121469</v>
+        <v>122674</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>261019</v>
+        <v>261186</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>397094</v>
+        <v>399945</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>164028</v>
+        <v>166765</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>308032</v>
+        <v>309767</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>465127</v>
+        <v>462489</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>104830</v>
+        <v>105647</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>167995</v>
+        <v>168494</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>285996</v>
+        <v>282687</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>146646</v>
+        <v>149549</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>211642</v>
+        <v>211312</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>345438</v>
+        <v>342108</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>76230</v>
+        <v>78164</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>125514</v>
+        <v>127058</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>214588</v>
+        <v>215365</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>118244</v>
+        <v>118850</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>161522</v>
+        <v>162897</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>269710</v>
+        <v>267555</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>447857</v>
+        <v>449001</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>794097</v>
+        <v>793915</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1265746</v>
+        <v>1261251</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>529144</v>
+        <v>530064</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>880830</v>
+        <v>884023</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1387310</v>
+        <v>1382934</v>
       </c>
     </row>
     <row r="24">
